--- a/database/industries/darou/detmad/product/quarterly.xlsx
+++ b/database/industries/darou/detmad/product/quarterly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\darou\detmad\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\darou\detmad\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BED785B3-8D86-4CC7-8CB9-F32FE9B2B715}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0026D3A3-04AD-418F-B05E-C4866B6A7E5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1212" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1215" uniqueCount="59">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -35,9 +35,6 @@
   </si>
   <si>
     <t>مقدار تولید</t>
-  </si>
-  <si>
-    <t>فصل دوم منتهی به 1399/06</t>
   </si>
   <si>
     <t>فصل سوم منتهی به 1399/09</t>
@@ -65,6 +62,9 @@
   </si>
   <si>
     <t>فصل سوم منتهی به 1401/09</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1401/12</t>
   </si>
   <si>
     <t>سایر</t>
@@ -656,12 +656,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -676,7 +676,7 @@
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -693,7 +693,7 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -710,7 +710,7 @@
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -725,7 +725,7 @@
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
     </row>
-    <row r="5" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -742,7 +742,7 @@
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
     </row>
-    <row r="6" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -759,7 +759,7 @@
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -774,7 +774,7 @@
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
     </row>
-    <row r="8" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -811,7 +811,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -826,7 +826,7 @@
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>15</v>
       </c>
@@ -863,7 +863,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>17</v>
       </c>
@@ -872,37 +872,37 @@
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
-        <v>355371</v>
+        <v>711833</v>
       </c>
       <c r="F11" s="11">
-        <v>711833</v>
+        <v>1835712</v>
       </c>
       <c r="G11" s="11">
-        <v>1835712</v>
+        <v>441238</v>
       </c>
       <c r="H11" s="11">
-        <v>441238</v>
+        <v>359613</v>
       </c>
       <c r="I11" s="11">
-        <v>359613</v>
+        <v>307350</v>
       </c>
       <c r="J11" s="11">
-        <v>307350</v>
+        <v>213137</v>
       </c>
       <c r="K11" s="11">
-        <v>213137</v>
+        <v>365400</v>
       </c>
       <c r="L11" s="11">
-        <v>365400</v>
+        <v>339706</v>
       </c>
       <c r="M11" s="11">
-        <v>339706</v>
+        <v>397486</v>
       </c>
       <c r="N11" s="11">
-        <v>397486</v>
-      </c>
-    </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+        <v>657401</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
         <v>19</v>
       </c>
@@ -911,37 +911,37 @@
       </c>
       <c r="D12" s="9"/>
       <c r="E12" s="9">
-        <v>119471</v>
+        <v>156591</v>
       </c>
       <c r="F12" s="9">
-        <v>156591</v>
+        <v>513572</v>
       </c>
       <c r="G12" s="9">
-        <v>513572</v>
+        <v>56407</v>
       </c>
       <c r="H12" s="9">
-        <v>56407</v>
+        <v>91604</v>
       </c>
       <c r="I12" s="9">
-        <v>91604</v>
+        <v>141204</v>
       </c>
       <c r="J12" s="9">
-        <v>141204</v>
+        <v>117159</v>
       </c>
       <c r="K12" s="9">
-        <v>117159</v>
+        <v>76103</v>
       </c>
       <c r="L12" s="9">
-        <v>76103</v>
+        <v>14866</v>
       </c>
       <c r="M12" s="9">
-        <v>14866</v>
+        <v>72484</v>
       </c>
       <c r="N12" s="9">
-        <v>72484</v>
-      </c>
-    </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+        <v>94922</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
         <v>20</v>
       </c>
@@ -956,8 +956,8 @@
       <c r="G13" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="H13" s="11" t="s">
-        <v>16</v>
+      <c r="H13" s="11">
+        <v>0</v>
       </c>
       <c r="I13" s="11">
         <v>0</v>
@@ -978,7 +978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
         <v>21</v>
       </c>
@@ -1017,7 +1017,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B15" s="10" t="s">
         <v>22</v>
       </c>
@@ -1056,7 +1056,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B16" s="8" t="s">
         <v>23</v>
       </c>
@@ -1095,7 +1095,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>24</v>
       </c>
@@ -1134,7 +1134,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B18" s="8" t="s">
         <v>25</v>
       </c>
@@ -1173,7 +1173,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
         <v>26</v>
       </c>
@@ -1212,7 +1212,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B20" s="8" t="s">
         <v>27</v>
       </c>
@@ -1251,7 +1251,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B21" s="10" t="s">
         <v>28</v>
       </c>
@@ -1290,7 +1290,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B22" s="8" t="s">
         <v>29</v>
       </c>
@@ -1329,7 +1329,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B23" s="10" t="s">
         <v>30</v>
       </c>
@@ -1368,7 +1368,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B24" s="8" t="s">
         <v>31</v>
       </c>
@@ -1407,7 +1407,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B25" s="10" t="s">
         <v>32</v>
       </c>
@@ -1446,7 +1446,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B26" s="8" t="s">
         <v>33</v>
       </c>
@@ -1485,7 +1485,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B27" s="10" t="s">
         <v>34</v>
       </c>
@@ -1524,7 +1524,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B28" s="8" t="s">
         <v>35</v>
       </c>
@@ -1563,7 +1563,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B29" s="10" t="s">
         <v>36</v>
       </c>
@@ -1602,7 +1602,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B30" s="8" t="s">
         <v>37</v>
       </c>
@@ -1641,7 +1641,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B31" s="10" t="s">
         <v>38</v>
       </c>
@@ -1680,7 +1680,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B32" s="8" t="s">
         <v>39</v>
       </c>
@@ -1719,7 +1719,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B33" s="10" t="s">
         <v>41</v>
       </c>
@@ -1742,23 +1742,23 @@
       <c r="I33" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="J33" s="11" t="s">
-        <v>16</v>
+      <c r="J33" s="11">
+        <v>22441475</v>
       </c>
       <c r="K33" s="11">
-        <v>22441475</v>
+        <v>1029600</v>
       </c>
       <c r="L33" s="11">
-        <v>1029600</v>
+        <v>3864079</v>
       </c>
       <c r="M33" s="11">
-        <v>3864079</v>
+        <v>1636911</v>
       </c>
       <c r="N33" s="11">
-        <v>1636911</v>
-      </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1289874</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B34" s="8" t="s">
         <v>41</v>
       </c>
@@ -1767,23 +1767,23 @@
       </c>
       <c r="D34" s="9"/>
       <c r="E34" s="9">
-        <v>296239</v>
+        <v>266955</v>
       </c>
       <c r="F34" s="9">
-        <v>266955</v>
+        <v>1000247</v>
       </c>
       <c r="G34" s="9">
-        <v>1000247</v>
+        <v>10881870</v>
       </c>
       <c r="H34" s="9">
-        <v>10881870</v>
+        <v>41655981</v>
       </c>
       <c r="I34" s="9">
-        <v>41655981</v>
-      </c>
-      <c r="J34" s="9">
         <v>14430693</v>
       </c>
+      <c r="J34" s="9" t="s">
+        <v>16</v>
+      </c>
       <c r="K34" s="9" t="s">
         <v>16</v>
       </c>
@@ -1797,44 +1797,44 @@
         <v>16</v>
       </c>
     </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B35" s="12" t="s">
         <v>43</v>
       </c>
       <c r="C35" s="13"/>
       <c r="D35" s="13"/>
       <c r="E35" s="13">
-        <v>771081</v>
+        <v>1135379</v>
       </c>
       <c r="F35" s="13">
-        <v>1135379</v>
+        <v>3349531</v>
       </c>
       <c r="G35" s="13">
-        <v>3349531</v>
+        <v>11379515</v>
       </c>
       <c r="H35" s="13">
-        <v>11379515</v>
+        <v>42107198</v>
       </c>
       <c r="I35" s="13">
-        <v>42107198</v>
+        <v>14879247</v>
       </c>
       <c r="J35" s="13">
-        <v>14879247</v>
+        <v>22771771</v>
       </c>
       <c r="K35" s="13">
-        <v>22771771</v>
+        <v>1471103</v>
       </c>
       <c r="L35" s="13">
-        <v>1471103</v>
+        <v>4218651</v>
       </c>
       <c r="M35" s="13">
-        <v>4218651</v>
+        <v>2106881</v>
       </c>
       <c r="N35" s="13">
-        <v>2106881</v>
-      </c>
-    </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
+        <v>2042197</v>
+      </c>
+    </row>
+    <row r="36" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -1849,7 +1849,7 @@
       <c r="M36" s="1"/>
       <c r="N36" s="1"/>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -1864,7 +1864,7 @@
       <c r="M37" s="1"/>
       <c r="N37" s="1"/>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -1879,7 +1879,7 @@
       <c r="M38" s="1"/>
       <c r="N38" s="1"/>
     </row>
-    <row r="39" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B39" s="7" t="s">
         <v>44</v>
       </c>
@@ -1916,7 +1916,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -1931,7 +1931,7 @@
       <c r="M40" s="1"/>
       <c r="N40" s="1"/>
     </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B41" s="8" t="s">
         <v>15</v>
       </c>
@@ -1968,7 +1968,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B42" s="10" t="s">
         <v>45</v>
       </c>
@@ -1982,8 +1982,8 @@
       <c r="F42" s="11">
         <v>0</v>
       </c>
-      <c r="G42" s="11">
-        <v>0</v>
+      <c r="G42" s="11" t="s">
+        <v>16</v>
       </c>
       <c r="H42" s="11" t="s">
         <v>16</v>
@@ -2007,7 +2007,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B43" s="8" t="s">
         <v>17</v>
       </c>
@@ -2016,37 +2016,37 @@
       </c>
       <c r="D43" s="9"/>
       <c r="E43" s="9">
-        <v>469968</v>
+        <v>655504</v>
       </c>
       <c r="F43" s="9">
-        <v>655504</v>
+        <v>358085</v>
       </c>
       <c r="G43" s="9">
-        <v>358085</v>
+        <v>413800</v>
       </c>
       <c r="H43" s="9">
-        <v>413800</v>
+        <v>371353</v>
       </c>
       <c r="I43" s="9">
-        <v>371353</v>
-      </c>
-      <c r="J43" s="9">
         <v>379153</v>
       </c>
-      <c r="K43" s="9" t="s">
-        <v>16</v>
+      <c r="J43" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="K43" s="9">
+        <v>284520</v>
       </c>
       <c r="L43" s="9">
-        <v>284520</v>
+        <v>403601</v>
       </c>
       <c r="M43" s="9">
-        <v>403601</v>
+        <v>369785</v>
       </c>
       <c r="N43" s="9">
-        <v>369785</v>
-      </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
+        <v>706665</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B44" s="10" t="s">
         <v>19</v>
       </c>
@@ -2055,37 +2055,37 @@
       </c>
       <c r="D44" s="11"/>
       <c r="E44" s="11">
-        <v>117024</v>
+        <v>160715</v>
       </c>
       <c r="F44" s="11">
-        <v>160715</v>
+        <v>32602</v>
       </c>
       <c r="G44" s="11">
-        <v>32602</v>
+        <v>62079</v>
       </c>
       <c r="H44" s="11">
-        <v>62079</v>
+        <v>145932</v>
       </c>
       <c r="I44" s="11">
-        <v>145932</v>
-      </c>
-      <c r="J44" s="11">
         <v>130121</v>
       </c>
-      <c r="K44" s="11" t="s">
-        <v>16</v>
+      <c r="J44" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="K44" s="11">
+        <v>32179</v>
       </c>
       <c r="L44" s="11">
-        <v>32179</v>
+        <v>27689</v>
       </c>
       <c r="M44" s="11">
-        <v>27689</v>
+        <v>127471</v>
       </c>
       <c r="N44" s="11">
-        <v>127471</v>
-      </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
+        <v>53173</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B45" s="8" t="s">
         <v>20</v>
       </c>
@@ -2097,20 +2097,20 @@
       <c r="F45" s="9">
         <v>0</v>
       </c>
-      <c r="G45" s="9">
+      <c r="G45" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H45" s="9">
         <v>0</v>
-      </c>
-      <c r="H45" s="9" t="s">
-        <v>16</v>
       </c>
       <c r="I45" s="9">
         <v>0</v>
       </c>
-      <c r="J45" s="9">
+      <c r="J45" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="K45" s="9">
         <v>0</v>
-      </c>
-      <c r="K45" s="9" t="s">
-        <v>16</v>
       </c>
       <c r="L45" s="9">
         <v>0</v>
@@ -2122,7 +2122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B46" s="10" t="s">
         <v>21</v>
       </c>
@@ -2161,7 +2161,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B47" s="8" t="s">
         <v>22</v>
       </c>
@@ -2200,7 +2200,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B48" s="10" t="s">
         <v>23</v>
       </c>
@@ -2239,7 +2239,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B49" s="8" t="s">
         <v>24</v>
       </c>
@@ -2278,7 +2278,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B50" s="10" t="s">
         <v>25</v>
       </c>
@@ -2317,7 +2317,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B51" s="8" t="s">
         <v>26</v>
       </c>
@@ -2356,7 +2356,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B52" s="10" t="s">
         <v>27</v>
       </c>
@@ -2395,7 +2395,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B53" s="8" t="s">
         <v>29</v>
       </c>
@@ -2434,7 +2434,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B54" s="10" t="s">
         <v>30</v>
       </c>
@@ -2473,7 +2473,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B55" s="8" t="s">
         <v>31</v>
       </c>
@@ -2512,7 +2512,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B56" s="10" t="s">
         <v>32</v>
       </c>
@@ -2551,7 +2551,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B57" s="8" t="s">
         <v>33</v>
       </c>
@@ -2590,7 +2590,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B58" s="10" t="s">
         <v>34</v>
       </c>
@@ -2629,7 +2629,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B59" s="8" t="s">
         <v>35</v>
       </c>
@@ -2668,7 +2668,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B60" s="10" t="s">
         <v>36</v>
       </c>
@@ -2707,7 +2707,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B61" s="8" t="s">
         <v>37</v>
       </c>
@@ -2746,7 +2746,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B62" s="10" t="s">
         <v>38</v>
       </c>
@@ -2785,7 +2785,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B63" s="8" t="s">
         <v>47</v>
       </c>
@@ -2824,7 +2824,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B64" s="10" t="s">
         <v>39</v>
       </c>
@@ -2863,7 +2863,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B65" s="8" t="s">
         <v>48</v>
       </c>
@@ -2902,7 +2902,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B66" s="10" t="s">
         <v>41</v>
       </c>
@@ -2928,20 +2928,20 @@
       <c r="J66" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="K66" s="11" t="s">
-        <v>16</v>
+      <c r="K66" s="11">
+        <v>44842702</v>
       </c>
       <c r="L66" s="11">
-        <v>44842702</v>
+        <v>10231443</v>
       </c>
       <c r="M66" s="11">
-        <v>10231443</v>
+        <v>9639088</v>
       </c>
       <c r="N66" s="11">
-        <v>9639088</v>
-      </c>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1292885</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B67" s="8" t="s">
         <v>41</v>
       </c>
@@ -2950,17 +2950,17 @@
       </c>
       <c r="D67" s="9"/>
       <c r="E67" s="9">
-        <v>266263</v>
+        <v>-23826173</v>
       </c>
       <c r="F67" s="9">
-        <v>-23826173</v>
+        <v>-66017066</v>
       </c>
       <c r="G67" s="9">
-        <v>-66017066</v>
-      </c>
-      <c r="H67" s="9">
         <v>14980748</v>
       </c>
+      <c r="H67" s="9" t="s">
+        <v>16</v>
+      </c>
       <c r="I67" s="9" t="s">
         <v>16</v>
       </c>
@@ -2980,7 +2980,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B68" s="10" t="s">
         <v>41</v>
       </c>
@@ -2995,15 +2995,15 @@
       <c r="G68" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="H68" s="11" t="s">
-        <v>16</v>
+      <c r="H68" s="11">
+        <v>46270073</v>
       </c>
       <c r="I68" s="11">
-        <v>46270073</v>
-      </c>
-      <c r="J68" s="11">
         <v>23055221</v>
       </c>
+      <c r="J68" s="11" t="s">
+        <v>16</v>
+      </c>
       <c r="K68" s="11" t="s">
         <v>16</v>
       </c>
@@ -3017,44 +3017,44 @@
         <v>16</v>
       </c>
     </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B69" s="14" t="s">
         <v>43</v>
       </c>
       <c r="C69" s="15"/>
       <c r="D69" s="15"/>
       <c r="E69" s="15">
-        <v>853255</v>
+        <v>-23009954</v>
       </c>
       <c r="F69" s="15">
-        <v>-23009954</v>
+        <v>-65626379</v>
       </c>
       <c r="G69" s="15">
-        <v>-65626379</v>
+        <v>15456627</v>
       </c>
       <c r="H69" s="15">
-        <v>15456627</v>
+        <v>46787358</v>
       </c>
       <c r="I69" s="15">
-        <v>46787358</v>
+        <v>23564495</v>
       </c>
       <c r="J69" s="15">
-        <v>23564495</v>
+        <v>0</v>
       </c>
       <c r="K69" s="15">
-        <v>0</v>
+        <v>45159401</v>
       </c>
       <c r="L69" s="15">
-        <v>45159401</v>
+        <v>10662733</v>
       </c>
       <c r="M69" s="15">
-        <v>10662733</v>
+        <v>10136344</v>
       </c>
       <c r="N69" s="15">
-        <v>10136344</v>
-      </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
+        <v>2052723</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
@@ -3069,7 +3069,7 @@
       <c r="M70" s="1"/>
       <c r="N70" s="1"/>
     </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
@@ -3084,7 +3084,7 @@
       <c r="M71" s="1"/>
       <c r="N71" s="1"/>
     </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
@@ -3099,7 +3099,7 @@
       <c r="M72" s="1"/>
       <c r="N72" s="1"/>
     </row>
-    <row r="73" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B73" s="7" t="s">
         <v>49</v>
       </c>
@@ -3136,7 +3136,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
@@ -3151,7 +3151,7 @@
       <c r="M74" s="1"/>
       <c r="N74" s="1"/>
     </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B75" s="8" t="s">
         <v>15</v>
       </c>
@@ -3190,7 +3190,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B76" s="10" t="s">
         <v>45</v>
       </c>
@@ -3204,8 +3204,8 @@
       <c r="F76" s="11">
         <v>0</v>
       </c>
-      <c r="G76" s="11">
-        <v>0</v>
+      <c r="G76" s="11" t="s">
+        <v>16</v>
       </c>
       <c r="H76" s="11" t="s">
         <v>16</v>
@@ -3229,7 +3229,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B77" s="8" t="s">
         <v>17</v>
       </c>
@@ -3238,37 +3238,37 @@
       </c>
       <c r="D77" s="9"/>
       <c r="E77" s="9">
-        <v>1016539</v>
+        <v>1408312</v>
       </c>
       <c r="F77" s="9">
-        <v>1408312</v>
+        <v>988963</v>
       </c>
       <c r="G77" s="9">
-        <v>988963</v>
+        <v>1477384</v>
       </c>
       <c r="H77" s="9">
-        <v>1477384</v>
+        <v>1376650</v>
       </c>
       <c r="I77" s="9">
-        <v>1376650</v>
-      </c>
-      <c r="J77" s="9">
         <v>1376148</v>
       </c>
-      <c r="K77" s="9" t="s">
-        <v>16</v>
+      <c r="J77" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="K77" s="9">
+        <v>1252898</v>
       </c>
       <c r="L77" s="9">
-        <v>1252898</v>
+        <v>2621527</v>
       </c>
       <c r="M77" s="9">
-        <v>2621527</v>
+        <v>1811129</v>
       </c>
       <c r="N77" s="9">
-        <v>1811129</v>
-      </c>
-    </row>
-    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
+        <v>3587536</v>
+      </c>
+    </row>
+    <row r="78" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B78" s="10" t="s">
         <v>19</v>
       </c>
@@ -3277,37 +3277,37 @@
       </c>
       <c r="D78" s="11"/>
       <c r="E78" s="11">
-        <v>726833</v>
+        <v>860105</v>
       </c>
       <c r="F78" s="11">
-        <v>860105</v>
+        <v>307056</v>
       </c>
       <c r="G78" s="11">
-        <v>307056</v>
+        <v>717922</v>
       </c>
       <c r="H78" s="11">
-        <v>717922</v>
+        <v>1131260</v>
       </c>
       <c r="I78" s="11">
-        <v>1131260</v>
-      </c>
-      <c r="J78" s="11">
         <v>407987</v>
       </c>
-      <c r="K78" s="11" t="s">
-        <v>16</v>
+      <c r="J78" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="K78" s="11">
+        <v>896874</v>
       </c>
       <c r="L78" s="11">
-        <v>896874</v>
+        <v>329520</v>
       </c>
       <c r="M78" s="11">
-        <v>329520</v>
+        <v>412371</v>
       </c>
       <c r="N78" s="11">
-        <v>412371</v>
-      </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
+        <v>658009</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B79" s="8" t="s">
         <v>20</v>
       </c>
@@ -3321,20 +3321,20 @@
       <c r="F79" s="9">
         <v>0</v>
       </c>
-      <c r="G79" s="9">
+      <c r="G79" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H79" s="9">
         <v>0</v>
-      </c>
-      <c r="H79" s="9" t="s">
-        <v>16</v>
       </c>
       <c r="I79" s="9">
         <v>0</v>
       </c>
-      <c r="J79" s="9">
+      <c r="J79" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="K79" s="9">
         <v>0</v>
-      </c>
-      <c r="K79" s="9" t="s">
-        <v>16</v>
       </c>
       <c r="L79" s="9">
         <v>0</v>
@@ -3346,7 +3346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B80" s="10" t="s">
         <v>21</v>
       </c>
@@ -3385,7 +3385,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="81" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B81" s="8" t="s">
         <v>22</v>
       </c>
@@ -3424,7 +3424,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="82" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B82" s="10" t="s">
         <v>23</v>
       </c>
@@ -3463,7 +3463,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="83" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B83" s="8" t="s">
         <v>24</v>
       </c>
@@ -3502,7 +3502,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="84" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B84" s="10" t="s">
         <v>25</v>
       </c>
@@ -3541,7 +3541,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="85" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B85" s="8" t="s">
         <v>26</v>
       </c>
@@ -3580,7 +3580,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="86" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B86" s="10" t="s">
         <v>27</v>
       </c>
@@ -3619,7 +3619,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="87" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B87" s="8" t="s">
         <v>29</v>
       </c>
@@ -3658,7 +3658,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="88" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B88" s="10" t="s">
         <v>30</v>
       </c>
@@ -3697,7 +3697,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="89" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B89" s="8" t="s">
         <v>31</v>
       </c>
@@ -3736,7 +3736,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="90" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B90" s="10" t="s">
         <v>32</v>
       </c>
@@ -3775,7 +3775,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="91" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B91" s="8" t="s">
         <v>33</v>
       </c>
@@ -3814,7 +3814,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="92" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B92" s="10" t="s">
         <v>34</v>
       </c>
@@ -3853,7 +3853,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="93" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B93" s="8" t="s">
         <v>35</v>
       </c>
@@ -3892,7 +3892,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="94" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B94" s="10" t="s">
         <v>36</v>
       </c>
@@ -3931,7 +3931,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="95" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B95" s="8" t="s">
         <v>37</v>
       </c>
@@ -3970,7 +3970,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="96" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B96" s="10" t="s">
         <v>38</v>
       </c>
@@ -4009,7 +4009,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="97" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B97" s="8" t="s">
         <v>47</v>
       </c>
@@ -4048,7 +4048,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="98" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B98" s="10" t="s">
         <v>39</v>
       </c>
@@ -4087,7 +4087,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="99" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B99" s="8" t="s">
         <v>48</v>
       </c>
@@ -4126,7 +4126,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="100" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B100" s="10" t="s">
         <v>41</v>
       </c>
@@ -4135,74 +4135,74 @@
       </c>
       <c r="D100" s="11"/>
       <c r="E100" s="11">
-        <v>263131</v>
+        <v>341101</v>
       </c>
       <c r="F100" s="11">
-        <v>341101</v>
+        <v>145367</v>
       </c>
       <c r="G100" s="11">
-        <v>145367</v>
+        <v>165859</v>
       </c>
       <c r="H100" s="11">
-        <v>165859</v>
+        <v>351095</v>
       </c>
       <c r="I100" s="11">
-        <v>351095</v>
-      </c>
-      <c r="J100" s="11">
         <v>196286</v>
       </c>
-      <c r="K100" s="11" t="s">
-        <v>16</v>
+      <c r="J100" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="K100" s="11">
+        <v>351107</v>
       </c>
       <c r="L100" s="11">
-        <v>351107</v>
+        <v>495428</v>
       </c>
       <c r="M100" s="11">
-        <v>495428</v>
+        <v>348065</v>
       </c>
       <c r="N100" s="11">
-        <v>348065</v>
-      </c>
-    </row>
-    <row r="101" spans="2:14" x14ac:dyDescent="0.25">
+        <v>320076</v>
+      </c>
+    </row>
+    <row r="101" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B101" s="14" t="s">
         <v>43</v>
       </c>
       <c r="C101" s="15"/>
       <c r="D101" s="15"/>
       <c r="E101" s="15">
-        <v>2006503</v>
+        <v>2609518</v>
       </c>
       <c r="F101" s="15">
-        <v>2609518</v>
+        <v>1441386</v>
       </c>
       <c r="G101" s="15">
-        <v>1441386</v>
+        <v>2361165</v>
       </c>
       <c r="H101" s="15">
-        <v>2361165</v>
+        <v>2859005</v>
       </c>
       <c r="I101" s="15">
-        <v>2859005</v>
+        <v>1980421</v>
       </c>
       <c r="J101" s="15">
-        <v>1980421</v>
+        <v>0</v>
       </c>
       <c r="K101" s="15">
-        <v>0</v>
+        <v>2500879</v>
       </c>
       <c r="L101" s="15">
-        <v>2500879</v>
+        <v>3446475</v>
       </c>
       <c r="M101" s="15">
-        <v>3446475</v>
+        <v>2571565</v>
       </c>
       <c r="N101" s="15">
-        <v>2571565</v>
-      </c>
-    </row>
-    <row r="102" spans="2:14" x14ac:dyDescent="0.25">
+        <v>4565621</v>
+      </c>
+    </row>
+    <row r="102" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
@@ -4217,7 +4217,7 @@
       <c r="M102" s="1"/>
       <c r="N102" s="1"/>
     </row>
-    <row r="103" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
@@ -4232,7 +4232,7 @@
       <c r="M103" s="1"/>
       <c r="N103" s="1"/>
     </row>
-    <row r="104" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
@@ -4247,7 +4247,7 @@
       <c r="M104" s="1"/>
       <c r="N104" s="1"/>
     </row>
-    <row r="105" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B105" s="7" t="s">
         <v>51</v>
       </c>
@@ -4284,7 +4284,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="106" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
@@ -4299,7 +4299,7 @@
       <c r="M106" s="1"/>
       <c r="N106" s="1"/>
     </row>
-    <row r="107" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B107" s="8" t="s">
         <v>15</v>
       </c>
@@ -4338,7 +4338,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="108" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B108" s="10" t="s">
         <v>45</v>
       </c>
@@ -4377,7 +4377,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="109" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B109" s="8" t="s">
         <v>17</v>
       </c>
@@ -4386,37 +4386,37 @@
       </c>
       <c r="D109" s="9"/>
       <c r="E109" s="9">
-        <v>2162996</v>
+        <v>2148442</v>
       </c>
       <c r="F109" s="9">
-        <v>2148442</v>
+        <v>2761811</v>
       </c>
       <c r="G109" s="9">
-        <v>2761811</v>
+        <v>3570285</v>
       </c>
       <c r="H109" s="9">
-        <v>3570285</v>
+        <v>3707120</v>
       </c>
       <c r="I109" s="9">
-        <v>3707120</v>
+        <v>3629532</v>
       </c>
       <c r="J109" s="9">
-        <v>3629532</v>
+        <v>4140555</v>
       </c>
       <c r="K109" s="9">
-        <v>4140555</v>
+        <v>4403550</v>
       </c>
       <c r="L109" s="9">
-        <v>4403550</v>
+        <v>6495343</v>
       </c>
       <c r="M109" s="9">
-        <v>6495343</v>
+        <v>4897789</v>
       </c>
       <c r="N109" s="9">
-        <v>4897789</v>
-      </c>
-    </row>
-    <row r="110" spans="2:14" x14ac:dyDescent="0.25">
+        <v>5076714</v>
+      </c>
+    </row>
+    <row r="110" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B110" s="10" t="s">
         <v>19</v>
       </c>
@@ -4425,37 +4425,37 @@
       </c>
       <c r="D110" s="11"/>
       <c r="E110" s="11">
-        <v>6210974</v>
+        <v>5351747</v>
       </c>
       <c r="F110" s="11">
-        <v>5351747</v>
+        <v>9418318</v>
       </c>
       <c r="G110" s="11">
-        <v>9418318</v>
+        <v>11564651</v>
       </c>
       <c r="H110" s="11">
-        <v>11564651</v>
+        <v>7751967</v>
       </c>
       <c r="I110" s="11">
-        <v>7751967</v>
+        <v>3135443</v>
       </c>
       <c r="J110" s="11">
-        <v>3135443</v>
+        <v>3568749</v>
       </c>
       <c r="K110" s="11">
-        <v>3568749</v>
+        <v>27871407</v>
       </c>
       <c r="L110" s="11">
-        <v>27871407</v>
+        <v>11900755</v>
       </c>
       <c r="M110" s="11">
-        <v>11900755</v>
+        <v>3235018</v>
       </c>
       <c r="N110" s="11">
-        <v>3235018</v>
-      </c>
-    </row>
-    <row r="111" spans="2:14" x14ac:dyDescent="0.25">
+        <v>12374871</v>
+      </c>
+    </row>
+    <row r="111" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B111" s="8" t="s">
         <v>20</v>
       </c>
@@ -4494,7 +4494,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="112" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B112" s="10" t="s">
         <v>21</v>
       </c>
@@ -4533,7 +4533,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="113" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B113" s="8" t="s">
         <v>22</v>
       </c>
@@ -4572,7 +4572,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="114" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B114" s="10" t="s">
         <v>23</v>
       </c>
@@ -4611,7 +4611,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="115" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B115" s="8" t="s">
         <v>24</v>
       </c>
@@ -4650,7 +4650,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="116" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B116" s="10" t="s">
         <v>25</v>
       </c>
@@ -4689,7 +4689,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="117" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B117" s="8" t="s">
         <v>26</v>
       </c>
@@ -4728,7 +4728,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="118" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B118" s="10" t="s">
         <v>27</v>
       </c>
@@ -4767,7 +4767,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="119" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B119" s="8" t="s">
         <v>29</v>
       </c>
@@ -4806,7 +4806,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="120" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B120" s="10" t="s">
         <v>30</v>
       </c>
@@ -4845,7 +4845,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="121" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B121" s="8" t="s">
         <v>31</v>
       </c>
@@ -4884,7 +4884,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="122" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B122" s="10" t="s">
         <v>32</v>
       </c>
@@ -4923,7 +4923,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="123" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B123" s="8" t="s">
         <v>34</v>
       </c>
@@ -4962,7 +4962,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="124" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B124" s="10" t="s">
         <v>35</v>
       </c>
@@ -5001,7 +5001,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="125" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B125" s="8" t="s">
         <v>36</v>
       </c>
@@ -5040,7 +5040,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="126" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B126" s="10" t="s">
         <v>37</v>
       </c>
@@ -5079,7 +5079,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="127" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B127" s="8" t="s">
         <v>38</v>
       </c>
@@ -5118,7 +5118,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="128" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B128" s="10" t="s">
         <v>47</v>
       </c>
@@ -5157,7 +5157,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="129" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B129" s="8" t="s">
         <v>39</v>
       </c>
@@ -5196,7 +5196,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="130" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B130" s="10" t="s">
         <v>48</v>
       </c>
@@ -5235,7 +5235,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="131" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B131" s="8" t="s">
         <v>41</v>
       </c>
@@ -5244,37 +5244,37 @@
       </c>
       <c r="D131" s="9"/>
       <c r="E131" s="9">
-        <v>988237</v>
+        <v>1164633</v>
       </c>
       <c r="F131" s="9">
-        <v>1164633</v>
+        <v>616469</v>
       </c>
       <c r="G131" s="9">
-        <v>616469</v>
+        <v>11071</v>
       </c>
       <c r="H131" s="9">
-        <v>11071</v>
+        <v>7588</v>
       </c>
       <c r="I131" s="9">
-        <v>7588</v>
+        <v>8514</v>
       </c>
       <c r="J131" s="9">
-        <v>8514</v>
+        <v>13843</v>
       </c>
       <c r="K131" s="9">
-        <v>13843</v>
+        <v>7830</v>
       </c>
       <c r="L131" s="9">
-        <v>7830</v>
+        <v>48422</v>
       </c>
       <c r="M131" s="9">
-        <v>48422</v>
+        <v>36110</v>
       </c>
       <c r="N131" s="9">
-        <v>36110</v>
-      </c>
-    </row>
-    <row r="132" spans="2:14" x14ac:dyDescent="0.25">
+        <v>247567</v>
+      </c>
+    </row>
+    <row r="132" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
       <c r="D132" s="1"/>
@@ -5289,7 +5289,7 @@
       <c r="M132" s="1"/>
       <c r="N132" s="1"/>
     </row>
-    <row r="133" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
       <c r="D133" s="1"/>
@@ -5304,7 +5304,7 @@
       <c r="M133" s="1"/>
       <c r="N133" s="1"/>
     </row>
-    <row r="134" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
       <c r="D134" s="1"/>
@@ -5319,7 +5319,7 @@
       <c r="M134" s="1"/>
       <c r="N134" s="1"/>
     </row>
-    <row r="135" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B135" s="7" t="s">
         <v>57</v>
       </c>
@@ -5356,7 +5356,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="136" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
       <c r="D136" s="1"/>
@@ -5371,7 +5371,7 @@
       <c r="M136" s="1"/>
       <c r="N136" s="1"/>
     </row>
-    <row r="137" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B137" s="8" t="s">
         <v>45</v>
       </c>
@@ -5385,8 +5385,8 @@
       <c r="F137" s="9">
         <v>0</v>
       </c>
-      <c r="G137" s="9">
-        <v>0</v>
+      <c r="G137" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="H137" s="9" t="s">
         <v>16</v>
@@ -5410,7 +5410,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="138" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B138" s="10" t="s">
         <v>17</v>
       </c>
@@ -5419,37 +5419,37 @@
       </c>
       <c r="D138" s="11"/>
       <c r="E138" s="11">
-        <v>-689001</v>
+        <v>-611514</v>
       </c>
       <c r="F138" s="11">
-        <v>-611514</v>
+        <v>-551772</v>
       </c>
       <c r="G138" s="11">
-        <v>-551772</v>
+        <v>-710323</v>
       </c>
       <c r="H138" s="11">
-        <v>-710323</v>
+        <v>-522958</v>
       </c>
       <c r="I138" s="11">
-        <v>-522958</v>
+        <v>-799714</v>
       </c>
       <c r="J138" s="11">
-        <v>-799714</v>
+        <v>-954209</v>
       </c>
       <c r="K138" s="11">
-        <v>-954209</v>
+        <v>-743038</v>
       </c>
       <c r="L138" s="11">
-        <v>-743038</v>
+        <v>-1325240</v>
       </c>
       <c r="M138" s="11">
-        <v>-1325240</v>
+        <v>-1014351</v>
       </c>
       <c r="N138" s="11">
-        <v>-1014351</v>
-      </c>
-    </row>
-    <row r="139" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-1993509</v>
+      </c>
+    </row>
+    <row r="139" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B139" s="8" t="s">
         <v>19</v>
       </c>
@@ -5458,37 +5458,37 @@
       </c>
       <c r="D139" s="9"/>
       <c r="E139" s="9">
-        <v>-186335</v>
+        <v>-227861</v>
       </c>
       <c r="F139" s="9">
-        <v>-227861</v>
+        <v>-127638</v>
       </c>
       <c r="G139" s="9">
-        <v>-127638</v>
+        <v>-204997</v>
       </c>
       <c r="H139" s="9">
-        <v>-204997</v>
+        <v>-376848</v>
       </c>
       <c r="I139" s="9">
-        <v>-376848</v>
+        <v>-117285</v>
       </c>
       <c r="J139" s="9">
-        <v>-117285</v>
+        <v>-191779</v>
       </c>
       <c r="K139" s="9">
-        <v>-191779</v>
+        <v>-232441</v>
       </c>
       <c r="L139" s="9">
-        <v>-232441</v>
+        <v>-198857</v>
       </c>
       <c r="M139" s="9">
-        <v>-198857</v>
+        <v>-206391</v>
       </c>
       <c r="N139" s="9">
-        <v>-206391</v>
-      </c>
-    </row>
-    <row r="140" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-372508</v>
+      </c>
+    </row>
+    <row r="140" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B140" s="10" t="s">
         <v>20</v>
       </c>
@@ -5502,11 +5502,11 @@
       <c r="F140" s="11">
         <v>0</v>
       </c>
-      <c r="G140" s="11">
+      <c r="G140" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="H140" s="11">
         <v>0</v>
-      </c>
-      <c r="H140" s="11" t="s">
-        <v>16</v>
       </c>
       <c r="I140" s="11">
         <v>0</v>
@@ -5527,7 +5527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B141" s="8" t="s">
         <v>41</v>
       </c>
@@ -5536,74 +5536,74 @@
       </c>
       <c r="D141" s="9"/>
       <c r="E141" s="9">
-        <v>-61250</v>
+        <v>-181735</v>
       </c>
       <c r="F141" s="9">
-        <v>-181735</v>
+        <v>-84098</v>
       </c>
       <c r="G141" s="9">
-        <v>-84098</v>
+        <v>-112643</v>
       </c>
       <c r="H141" s="9">
-        <v>-112643</v>
+        <v>-184944</v>
       </c>
       <c r="I141" s="9">
-        <v>-184944</v>
+        <v>-122610</v>
       </c>
       <c r="J141" s="9">
-        <v>-122610</v>
+        <v>-111058</v>
       </c>
       <c r="K141" s="9">
-        <v>-111058</v>
+        <v>-197677</v>
       </c>
       <c r="L141" s="9">
-        <v>-197677</v>
+        <v>-288717</v>
       </c>
       <c r="M141" s="9">
-        <v>-288717</v>
+        <v>-130208</v>
       </c>
       <c r="N141" s="9">
-        <v>-130208</v>
-      </c>
-    </row>
-    <row r="142" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-265901</v>
+      </c>
+    </row>
+    <row r="142" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B142" s="12" t="s">
         <v>43</v>
       </c>
       <c r="C142" s="13"/>
       <c r="D142" s="13"/>
       <c r="E142" s="13">
-        <v>-936586</v>
+        <v>-1021110</v>
       </c>
       <c r="F142" s="13">
-        <v>-1021110</v>
+        <v>-763508</v>
       </c>
       <c r="G142" s="13">
-        <v>-763508</v>
+        <v>-1027963</v>
       </c>
       <c r="H142" s="13">
-        <v>-1027963</v>
+        <v>-1084750</v>
       </c>
       <c r="I142" s="13">
-        <v>-1084750</v>
+        <v>-1039609</v>
       </c>
       <c r="J142" s="13">
-        <v>-1039609</v>
+        <v>-1257046</v>
       </c>
       <c r="K142" s="13">
-        <v>-1257046</v>
+        <v>-1173156</v>
       </c>
       <c r="L142" s="13">
-        <v>-1173156</v>
+        <v>-1812814</v>
       </c>
       <c r="M142" s="13">
-        <v>-1812814</v>
+        <v>-1350950</v>
       </c>
       <c r="N142" s="13">
-        <v>-1350950</v>
-      </c>
-    </row>
-    <row r="143" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-2631918</v>
+      </c>
+    </row>
+    <row r="143" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
       <c r="D143" s="1"/>
@@ -5618,7 +5618,7 @@
       <c r="M143" s="1"/>
       <c r="N143" s="1"/>
     </row>
-    <row r="144" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
       <c r="D144" s="1"/>
@@ -5633,7 +5633,7 @@
       <c r="M144" s="1"/>
       <c r="N144" s="1"/>
     </row>
-    <row r="145" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
       <c r="D145" s="1"/>
@@ -5648,7 +5648,7 @@
       <c r="M145" s="1"/>
       <c r="N145" s="1"/>
     </row>
-    <row r="146" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B146" s="7" t="s">
         <v>58</v>
       </c>
@@ -5685,7 +5685,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="147" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B147" s="1"/>
       <c r="C147" s="1"/>
       <c r="D147" s="1"/>
@@ -5700,7 +5700,7 @@
       <c r="M147" s="1"/>
       <c r="N147" s="1"/>
     </row>
-    <row r="148" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B148" s="8" t="s">
         <v>45</v>
       </c>
@@ -5714,8 +5714,8 @@
       <c r="F148" s="9">
         <v>0</v>
       </c>
-      <c r="G148" s="9">
-        <v>0</v>
+      <c r="G148" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="H148" s="9" t="s">
         <v>16</v>
@@ -5739,7 +5739,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="149" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B149" s="10" t="s">
         <v>17</v>
       </c>
@@ -5748,37 +5748,37 @@
       </c>
       <c r="D149" s="11"/>
       <c r="E149" s="11">
-        <v>327538</v>
+        <v>796798</v>
       </c>
       <c r="F149" s="11">
-        <v>796798</v>
+        <v>437191</v>
       </c>
       <c r="G149" s="11">
-        <v>437191</v>
+        <v>767061</v>
       </c>
       <c r="H149" s="11">
-        <v>767061</v>
+        <v>853692</v>
       </c>
       <c r="I149" s="11">
-        <v>853692</v>
+        <v>576434</v>
       </c>
       <c r="J149" s="11">
-        <v>576434</v>
+        <v>735510</v>
       </c>
       <c r="K149" s="11">
-        <v>735510</v>
+        <v>509860</v>
       </c>
       <c r="L149" s="11">
-        <v>509860</v>
+        <v>1296287</v>
       </c>
       <c r="M149" s="11">
-        <v>1296287</v>
+        <v>796778</v>
       </c>
       <c r="N149" s="11">
-        <v>796778</v>
-      </c>
-    </row>
-    <row r="150" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1594027</v>
+      </c>
+    </row>
+    <row r="150" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B150" s="8" t="s">
         <v>19</v>
       </c>
@@ -5787,37 +5787,37 @@
       </c>
       <c r="D150" s="9"/>
       <c r="E150" s="9">
-        <v>540498</v>
+        <v>632245</v>
       </c>
       <c r="F150" s="9">
-        <v>632245</v>
+        <v>179418</v>
       </c>
       <c r="G150" s="9">
-        <v>179418</v>
+        <v>512925</v>
       </c>
       <c r="H150" s="9">
-        <v>512925</v>
+        <v>754412</v>
       </c>
       <c r="I150" s="9">
-        <v>754412</v>
+        <v>290702</v>
       </c>
       <c r="J150" s="9">
-        <v>290702</v>
+        <v>285973</v>
       </c>
       <c r="K150" s="9">
-        <v>285973</v>
+        <v>664433</v>
       </c>
       <c r="L150" s="9">
-        <v>664433</v>
+        <v>130663</v>
       </c>
       <c r="M150" s="9">
-        <v>130663</v>
+        <v>205980</v>
       </c>
       <c r="N150" s="9">
-        <v>205980</v>
-      </c>
-    </row>
-    <row r="151" spans="2:14" x14ac:dyDescent="0.25">
+        <v>285501</v>
+      </c>
+    </row>
+    <row r="151" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B151" s="10" t="s">
         <v>20</v>
       </c>
@@ -5831,11 +5831,11 @@
       <c r="F151" s="11">
         <v>0</v>
       </c>
-      <c r="G151" s="11">
+      <c r="G151" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="H151" s="11">
         <v>0</v>
-      </c>
-      <c r="H151" s="11" t="s">
-        <v>16</v>
       </c>
       <c r="I151" s="11">
         <v>0</v>
@@ -5856,7 +5856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B152" s="8" t="s">
         <v>41</v>
       </c>
@@ -5865,71 +5865,71 @@
       </c>
       <c r="D152" s="9"/>
       <c r="E152" s="9">
-        <v>201881</v>
+        <v>159365</v>
       </c>
       <c r="F152" s="9">
-        <v>159365</v>
+        <v>61269</v>
       </c>
       <c r="G152" s="9">
-        <v>61269</v>
+        <v>53216</v>
       </c>
       <c r="H152" s="9">
-        <v>53216</v>
+        <v>166151</v>
       </c>
       <c r="I152" s="9">
-        <v>166151</v>
+        <v>73676</v>
       </c>
       <c r="J152" s="9">
-        <v>73676</v>
+        <v>87806</v>
       </c>
       <c r="K152" s="9">
-        <v>87806</v>
+        <v>153430</v>
       </c>
       <c r="L152" s="9">
-        <v>153430</v>
+        <v>206711</v>
       </c>
       <c r="M152" s="9">
-        <v>206711</v>
+        <v>217857</v>
       </c>
       <c r="N152" s="9">
-        <v>217857</v>
-      </c>
-    </row>
-    <row r="153" spans="2:14" x14ac:dyDescent="0.25">
+        <v>54175</v>
+      </c>
+    </row>
+    <row r="153" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B153" s="12" t="s">
         <v>43</v>
       </c>
       <c r="C153" s="13"/>
       <c r="D153" s="13"/>
       <c r="E153" s="13">
-        <v>1069917</v>
+        <v>1588408</v>
       </c>
       <c r="F153" s="13">
-        <v>1588408</v>
+        <v>677878</v>
       </c>
       <c r="G153" s="13">
-        <v>677878</v>
+        <v>1333202</v>
       </c>
       <c r="H153" s="13">
-        <v>1333202</v>
+        <v>1774255</v>
       </c>
       <c r="I153" s="13">
-        <v>1774255</v>
+        <v>940812</v>
       </c>
       <c r="J153" s="13">
-        <v>940812</v>
+        <v>1109289</v>
       </c>
       <c r="K153" s="13">
-        <v>1109289</v>
+        <v>1327723</v>
       </c>
       <c r="L153" s="13">
-        <v>1327723</v>
+        <v>1633661</v>
       </c>
       <c r="M153" s="13">
-        <v>1633661</v>
+        <v>1220615</v>
       </c>
       <c r="N153" s="13">
-        <v>1220615</v>
+        <v>1933703</v>
       </c>
     </row>
   </sheetData>
